--- a/biology/Zoologie/Grice/Grice.xlsx
+++ b/biology/Zoologie/Grice/Grice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le grice[réf. nécessaire] est une race de cochons domestiques originaire des Shetland et aujourd'hui disparue. C'était un cochon de petite taille, très agressif avec des petites défenses. Il disparait au cours du XIXe siècle, lorsque ce cochon particulièrement vorace commence à connaître la concurrence d'autres races étrangères[1],[2].
+Le grice[réf. nécessaire] est une race de cochons domestiques originaire des Shetland et aujourd'hui disparue. C'était un cochon de petite taille, très agressif avec des petites défenses. Il disparait au cours du XIXe siècle, lorsque ce cochon particulièrement vorace commence à connaître la concurrence d'autres races étrangères,.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
